--- a/Accounts-Schedules/تدريب طلبات 22-12-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 22-12-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="161">
   <si>
     <t>Here is the list of trainees scheduled for training at Talabat on Monday, December 22nd, from 10 AM to 7 PM.</t>
   </si>
@@ -396,108 +396,108 @@
     <t>عابدة صلاح محمد</t>
   </si>
   <si>
+    <t>سيف الدين أحمد سعد</t>
+  </si>
+  <si>
+    <t>مسام ناصر</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>مصطفى علي</t>
+  </si>
+  <si>
+    <t>أحمد محمد سامي</t>
+  </si>
+  <si>
+    <t>حاتم، ملاذ</t>
+  </si>
+  <si>
+    <t>نورهان فتحي</t>
+  </si>
+  <si>
+    <t>يوسف مجدي</t>
+  </si>
+  <si>
+    <t>عبد الرحمن محسن</t>
+  </si>
+  <si>
+    <t>محمد الببلاوي</t>
+  </si>
+  <si>
+    <t>زياد وليد</t>
+  </si>
+  <si>
+    <t>فرح حافظ</t>
+  </si>
+  <si>
+    <t>تالا سمير</t>
+  </si>
+  <si>
+    <t>رامي سليمان</t>
+  </si>
+  <si>
+    <t>محمود مختار</t>
+  </si>
+  <si>
+    <t>مازن جاسر أحمد</t>
+  </si>
+  <si>
+    <t>امجد محمد</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>كريم وليد</t>
+  </si>
+  <si>
+    <t>معتز بكير</t>
+  </si>
+  <si>
+    <t>شيماء علاء الدين</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>محمد المليجي</t>
+  </si>
+  <si>
+    <t>ساندرا صفوت</t>
+  </si>
+  <si>
+    <t>احمد بركات</t>
+  </si>
+  <si>
+    <t>محمد رجب</t>
+  </si>
+  <si>
+    <t>مازن محمود</t>
+  </si>
+  <si>
+    <t>محمد حسن</t>
+  </si>
+  <si>
+    <t>ابراهيم عريشة</t>
+  </si>
+  <si>
+    <t>فرحات رشاد</t>
+  </si>
+  <si>
+    <t>فاطمة عمر</t>
+  </si>
+  <si>
+    <t>جينيرال، محمد</t>
+  </si>
+  <si>
+    <t>وسيم الفرا</t>
+  </si>
+  <si>
     <t>شهيندا بلا عبد الرحمن علي</t>
   </si>
   <si>
-    <t>سيف الدين أحمد سعد</t>
-  </si>
-  <si>
-    <t>مسام ناصر</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>مصطفى علي</t>
-  </si>
-  <si>
-    <t>أحمد محمد سامي</t>
-  </si>
-  <si>
-    <t>حاتم، ملاذ</t>
-  </si>
-  <si>
-    <t>نورهان فتحي</t>
-  </si>
-  <si>
-    <t>يوسف مجدي</t>
-  </si>
-  <si>
-    <t>عبد الرحمن محسن</t>
-  </si>
-  <si>
-    <t>محمد الببلاوي</t>
-  </si>
-  <si>
-    <t>زياد وليد</t>
-  </si>
-  <si>
-    <t>فرح حافظ</t>
-  </si>
-  <si>
-    <t>تالا سمير</t>
-  </si>
-  <si>
-    <t>رامي سليمان</t>
-  </si>
-  <si>
-    <t>محمود مختار</t>
-  </si>
-  <si>
-    <t>مازن جاسر أحمد</t>
-  </si>
-  <si>
-    <t>امجد محمد</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>كريم وليد</t>
-  </si>
-  <si>
-    <t>معتز بكير</t>
-  </si>
-  <si>
-    <t>شيماء علاء الدين</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمد المليجي</t>
-  </si>
-  <si>
-    <t>ساندرا صفوت</t>
-  </si>
-  <si>
-    <t>احمد بركات</t>
-  </si>
-  <si>
-    <t>محمد رجب</t>
-  </si>
-  <si>
-    <t>مازن محمود</t>
-  </si>
-  <si>
-    <t>محمد حسن</t>
-  </si>
-  <si>
-    <t>ابراهيم عريشة</t>
-  </si>
-  <si>
-    <t>فرحات رشاد</t>
-  </si>
-  <si>
-    <t>فاطمة عمر</t>
-  </si>
-  <si>
-    <t>جينيرال، محمد</t>
-  </si>
-  <si>
-    <t>وسيم الفرا</t>
-  </si>
-  <si>
     <t>و - مدينتي</t>
   </si>
   <si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>مدخل بدر</t>
   </si>
 </sst>
 </file>
@@ -3213,14 +3219,14 @@
       <c r="D9" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="E9" s="6">
-        <v>1140346264</v>
+      <c r="E9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>115</v>
@@ -3229,7 +3235,7 @@
         <v>115</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -3239,23 +3245,23 @@
       <c r="D10" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>82</v>
+      <c r="E10" s="6">
+        <v>1020300333</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="3:10">
@@ -3266,7 +3272,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E11" s="6">
-        <v>1020300333</v>
+        <v>1152506287</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>113</v>
@@ -3275,13 +3281,13 @@
         <v>122</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="3:10">
@@ -3292,22 +3298,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E12" s="6">
-        <v>1152506287</v>
+        <v>1027781770</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:10">
@@ -3318,7 +3324,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E13" s="6">
-        <v>1027781770</v>
+        <v>1557735376</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>113</v>
@@ -3327,13 +3333,13 @@
         <v>125</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -3344,7 +3350,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E14" s="6">
-        <v>1557735376</v>
+        <v>1555781660</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>113</v>
@@ -3356,10 +3362,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -3370,7 +3376,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E15" s="6">
-        <v>1555781660</v>
+        <v>1093998041</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>113</v>
@@ -3382,10 +3388,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -3396,7 +3402,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E16" s="9">
-        <v>1093998041</v>
+        <v>1117618010</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>113</v>
@@ -3408,10 +3414,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -3422,7 +3428,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E17" s="9">
-        <v>1117618010</v>
+        <v>1067356173</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>113</v>
@@ -3434,10 +3440,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -3448,7 +3454,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E18" s="9">
-        <v>1067356173</v>
+        <v>1227206920</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>113</v>
@@ -3460,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -3474,7 +3480,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E19" s="9">
-        <v>1227206920</v>
+        <v>1080392329</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>113</v>
@@ -3486,10 +3492,10 @@
         <v>12</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -3500,7 +3506,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E20" s="9">
-        <v>1080392329</v>
+        <v>1113017077</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>113</v>
@@ -3512,10 +3518,10 @@
         <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -3526,7 +3532,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E21" s="9">
-        <v>1113017077</v>
+        <v>1505750980</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>113</v>
@@ -3535,13 +3541,13 @@
         <v>133</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -3552,7 +3558,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E22" s="9">
-        <v>1505750980</v>
+        <v>1016120226</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>113</v>
@@ -3564,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -3578,7 +3584,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E23" s="9">
-        <v>1016120226</v>
+        <v>1019202419</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>113</v>
@@ -3590,10 +3596,10 @@
         <v>30</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -3604,7 +3610,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E24" s="9">
-        <v>1019202419</v>
+        <v>1552858610</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>113</v>
@@ -3616,10 +3622,10 @@
         <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -3629,8 +3635,8 @@
       <c r="D25" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="E25" s="9">
-        <v>1552858610</v>
+      <c r="E25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>113</v>
@@ -3639,13 +3645,13 @@
         <v>137</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="3:10">
@@ -3655,23 +3661,23 @@
       <c r="D26" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>48</v>
+      <c r="E26" s="9">
+        <v>1091772325</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -3682,7 +3688,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E27" s="9">
-        <v>1091772325</v>
+        <v>1277498727</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>113</v>
@@ -3691,13 +3697,13 @@
         <v>140</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -3708,7 +3714,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E28" s="9">
-        <v>1277498727</v>
+        <v>1159542855</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>113</v>
@@ -3717,13 +3723,13 @@
         <v>141</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -3734,22 +3740,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E29" s="9">
-        <v>1159542855</v>
+        <v>1096678963</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="I29" s="9" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -3760,7 +3766,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E30" s="9">
-        <v>1096678963</v>
+        <v>1010944792</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>113</v>
@@ -3769,13 +3775,13 @@
         <v>144</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -3786,7 +3792,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E31" s="9">
-        <v>1010944792</v>
+        <v>1128522250</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>113</v>
@@ -3795,13 +3801,13 @@
         <v>145</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -3812,7 +3818,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E32" s="9">
-        <v>1128522250</v>
+        <v>1119685355</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>113</v>
@@ -3824,10 +3830,10 @@
         <v>57</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -3838,7 +3844,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E33" s="9">
-        <v>1119685355</v>
+        <v>1515647103</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>113</v>
@@ -3850,10 +3856,10 @@
         <v>57</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="3:10">
@@ -3864,7 +3870,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E34" s="9">
-        <v>1515647103</v>
+        <v>1093007851</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>113</v>
@@ -3873,13 +3879,13 @@
         <v>148</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="3:10">
@@ -3890,7 +3896,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E35" s="9">
-        <v>1093007851</v>
+        <v>1125972700</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>113</v>
@@ -3905,7 +3911,7 @@
         <v>16</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -3916,22 +3922,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E36" s="9">
-        <v>1125972700</v>
+        <v>1151951189</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:10">
@@ -3942,22 +3948,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E37" s="9">
-        <v>1151951189</v>
+        <v>1220956676</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="3:10">
@@ -3968,7 +3974,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E38" s="9">
-        <v>1220956676</v>
+        <v>1105642724</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>113</v>
@@ -3980,10 +3986,10 @@
         <v>107</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:10">
@@ -3994,7 +4000,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E39" s="9">
-        <v>1105642724</v>
+        <v>1275574497</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>113</v>
@@ -4003,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="3:10">
@@ -4020,7 +4026,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E40" s="9">
-        <v>1275574497</v>
+        <v>1154209421</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>113</v>
@@ -4035,7 +4041,7 @@
         <v>9</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="3:10">
@@ -4046,7 +4052,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E41" s="9">
-        <v>1154209421</v>
+        <v>1140346264</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>113</v>
@@ -4058,10 +4064,10 @@
         <v>88</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="3:10">
@@ -4072,22 +4078,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E42" s="9">
-        <v>1140346264</v>
+        <v>79967923059</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="3:10">
@@ -4097,14 +4103,14 @@
       <c r="D43" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="E43" s="9">
-        <v>79967923059</v>
+      <c r="E43" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>155</v>
@@ -4113,7 +4119,7 @@
         <v>85</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:10">
@@ -4124,22 +4130,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="3:10">
@@ -4149,23 +4155,23 @@
       <c r="D45" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>98</v>
+      <c r="E45" s="9">
+        <v>1140346264</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
